--- a/export/export_files/Tuffy Security Products Underseat Drawer w Keyed Lock for Ford Explorer  Police Interceptor 20112024 Black/Tuffy Security Products Underse.xlsx
+++ b/export/export_files/Tuffy Security Products Underseat Drawer w Keyed Lock for Ford Explorer  Police Interceptor 20112024 Black/Tuffy Security Products Underse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.idspeedshop.com/tuffy-underseat-drawer-w-keyed-lock-for-ford-explorer-police-interceptor-335-01/?srsltid=AfmBOopcWo3vXx8hq36E0nt8fcn-eIRDDROq0PAIwrdRU8viJtwammTN</t>
+          <t>https://www.idspeedshop.com/tuffy-underseat-drawer-w-keyed-lock-for-ford-explorer-police-interceptor-335-01/?srsltid=AfmBOoolIiQKdPEhKjpC__bSrWezJ2Y8HqpCZXQQLxgpCWn3VDAOjIb_</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://ricksprotruck.com/tuffy-security-335-01-security-drawer?srsltid=AfmBOoo4XPW0iDFr1tAQ0__4d_5I-QRNcPHsHs2FGzCYkO9P35VdlH4_</t>
+          <t>https://ricksprotruck.com/tuffy-security-335-01-security-drawer?srsltid=AfmBOopc7H8dcGcSPvgrnNgRGTxQACEZIBs1xogPHBqF8rNxaDVRGKvD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,12 +472,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://autoshopping24.com/products/drawer-underseat-standard-key-ford-explorer-2011-2024?srsltid=AfmBOopRfDD8WNjEyU4bgtFlmdACWebZu0a6_XSsgftyG_Mt7J0SaaHf</t>
+          <t>https://autoshopping24.com/products/drawer-underseat-standard-key-ford-explorer-2011-2024?srsltid=AfmBOopzgStmrjxKePel0f-BLvZQVsvKKJCbTGpYGvt4O5AcRlnDRuMJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>199.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://sportcompactwarehouse.com/tuffy-security-products-335-01-seat-storage-drawer?srsltid=AfmBOop1lgUmPBRlxC46l3L5W0Nuz_f_8F4Hj1odX6tylmN-OwwV4PsH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>218.5</t>
         </is>
       </c>
     </row>
